--- a/genshin/431018114395648256_2020-09-04_12-10-25.xlsx
+++ b/genshin/431018114395648256_2020-09-04_12-10-25.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:49:40</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11782407408</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-10 21:14:32</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44084.88509259259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>3475157115</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:28:13</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44084.31126157408</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -768,10 +778,8 @@
           <t>3469133357</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:37:32</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44082.56773148148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>3468625877</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:39:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44082.44435185185</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>3453809519</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-07 19:44:51</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44081.8228125</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -978,10 +982,8 @@
           <t>3453809519</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-07 10:38:27</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44081.44336805555</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:35:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44080.94113425926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1128,10 +1128,8 @@
           <t>3453809519</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:16:13</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44080.92792824074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1200,10 +1198,8 @@
           <t>3453809519</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:02:25</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44080.9183449074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1279,10 +1275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:29:21</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44080.60371527778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1350,10 +1344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:29:05</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44080.60353009259</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1421,10 +1413,8 @@
           <t>3453809519</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-06 13:19:41</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44080.55533564815</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1494,10 +1484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-06 12:42:18</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44080.529375</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>3459115701</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:33:14</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44079.85641203704</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1640,10 +1626,8 @@
           <t>3459108614</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:32:55</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44079.85619212963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1711,10 +1695,8 @@
           <t>3459104883</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-05 20:32:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44079.85601851852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1807,10 +1789,8 @@
           <t>3458433170</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-05 18:00:34</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44079.75039351852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1870,10 +1850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-05 16:37:21</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44079.69260416667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1933,10 +1911,8 @@
           <t>3457236422</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-05 13:18:47</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44079.55471064815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2004,10 +1980,8 @@
           <t>3457236422</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44079.52040509259</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2079,10 +2053,8 @@
           <t>3457229061</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-05 12:29:05</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44079.52019675926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2154,10 +2126,8 @@
           <t>3454875912</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-05 11:21:56</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44079.47356481481</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2225,10 +2195,8 @@
           <t>3454875912</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-05 11:14:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44079.46854166667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2296,10 +2264,8 @@
           <t>3456812979</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-05 10:34:32</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44079.44064814815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2375,10 +2341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-05 10:17:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44079.42895833333</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2446,10 +2410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-05 09:54:15</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44079.41267361111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2518,10 +2480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-05 09:40:50</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44079.40335648148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2618,10 +2578,8 @@
           <t>3456617029</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-05 09:31:01</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44079.39653935185</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2685,10 +2643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-05 09:26:15</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44079.39322916666</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2752,10 +2708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-05 08:42:16</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44079.36268518519</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2823,10 +2777,8 @@
           <t>3456406551</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-05 08:03:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44079.33556712963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2894,10 +2846,8 @@
           <t>3456401696</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-05 08:02:01</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44079.3347337963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2965,10 +2915,8 @@
           <t>3456228785</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-05 04:58:44</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44079.2074537037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3044,10 +2992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-05 00:20:57</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44079.01454861111</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3111,10 +3057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-05 00:11:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44079.00767361111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3182,10 +3126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-04 23:24:03</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44078.97503472222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3261,10 +3203,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-04 22:53:09</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44078.95357638889</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3332,10 +3272,8 @@
           <t>3454011959</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-04 21:24:24</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44078.89194444445</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3399,10 +3337,8 @@
           <t>3454011959</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-04 21:14:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44078.88508101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3466,10 +3402,8 @@
           <t>3454011959</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-04 21:13:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44078.8843287037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3533,10 +3467,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:56:34</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44078.87261574074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3608,10 +3540,8 @@
           <t>3454875912</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:38:44</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44078.86023148148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3679,10 +3609,8 @@
           <t>3454854431</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:36:54</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44078.85895833333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3750,10 +3678,8 @@
           <t>3454854074</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:36:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44078.85880787037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3821,10 +3747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:36:18</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44078.85854166667</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3888,10 +3812,8 @@
           <t>3454861599</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:35:40</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44078.85810185185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3959,10 +3881,8 @@
           <t>3454852065</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:35:16</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44078.85782407408</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4030,10 +3950,8 @@
           <t>3454851027</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:34:31</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44078.85730324074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4101,10 +4019,8 @@
           <t>3454848976</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:33:47</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44078.85679398148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4172,10 +4088,8 @@
           <t>3454839598</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-04 20:33:30</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44078.85659722222</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4243,10 +4157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-04 19:27:56</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44078.81106481481</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4314,10 +4226,8 @@
           <t>3454517713</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-04 19:18:03</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44078.80420138889</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4393,10 +4303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-04 18:51:22</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44078.7856712963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4472,10 +4380,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-04 18:41:50</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44078.77905092593</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4539,10 +4445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-04 18:24:42</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44078.76715277778</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4610,10 +4514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-04 18:17:21</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44078.76204861111</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4677,10 +4579,8 @@
           <t>3454172592</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:57:24</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44078.74819444444</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4740,10 +4640,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:56:44</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44078.74773148148</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4819,10 +4717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:55:03</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44078.7465625</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4886,10 +4782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:52:49</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44078.74501157407</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4957,10 +4851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:50:58</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44078.74372685186</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5028,10 +4920,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:45:26</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44078.73988425926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5103,10 +4993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:40:35</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44078.7365162037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5174,10 +5062,8 @@
           <t>3454077542</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:33:21</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44078.73149305556</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5245,10 +5131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:32:32</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44078.73092592593</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5312,10 +5196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:27:52</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44078.72768518519</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5387,10 +5269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:25:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44078.72633101852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5454,10 +5334,8 @@
           <t>3454011959</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:14:30</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44078.71840277778</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
@@ -5521,10 +5399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:11:46</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44078.71650462963</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5592,10 +5468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:08:21</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44078.71413194444</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5663,10 +5537,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:07:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44078.71386574074</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
@@ -5742,10 +5614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:05:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44078.71192129629</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5817,10 +5687,8 @@
           <t>3453978371</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:04:33</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44078.71149305555</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5884,10 +5752,8 @@
           <t>3453961886</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:58:45</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44078.70746527778</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5959,10 +5825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:51:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44078.70241898148</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6022,10 +5886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:48:34</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44078.70039351852</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6101,10 +5963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:47:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44078.6997337963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6168,10 +6028,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:46:40</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44078.69907407407</v>
       </c>
       <c r="I80" t="n">
         <v>7</v>
@@ -6247,10 +6105,8 @@
           <t>3453899439</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:42:12</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44078.69597222222</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6326,10 +6182,8 @@
           <t>3453262889</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:41:15</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44078.6953125</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6393,10 +6247,8 @@
           <t>3453895603</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:38:31</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44078.69341435185</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6460,10 +6312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:34:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44078.69077546296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6539,10 +6389,8 @@
           <t>3453368780</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:27:18</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44078.685625</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6606,10 +6454,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:15:58</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44078.67775462963</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -6685,10 +6531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:15:22</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44078.67733796296</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6764,10 +6608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:14:40</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44078.67685185185</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6845,10 +6687,8 @@
           <t>3453809519</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:11:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44078.67491898148</v>
       </c>
       <c r="I89" t="n">
         <v>7</v>
@@ -6924,10 +6764,8 @@
           <t>3453805111</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:07:08</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44078.67162037037</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -6991,10 +6829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:06:40</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44078.6712962963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7054,10 +6890,8 @@
           <t>3453802345</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-04 16:05:06</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44078.67020833334</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7121,10 +6955,8 @@
           <t>3453224687</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:57:54</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44078.66520833333</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7192,10 +7024,8 @@
           <t>3453178931</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:57:26</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44078.66488425926</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -7263,10 +7093,8 @@
           <t>3453170154</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:56:12</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44078.66402777778</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7334,10 +7162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:52:20</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44078.66134259259</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7401,10 +7227,8 @@
           <t>3453766136</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:52:16</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44078.6612962963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7472,10 +7296,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:50:27</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44078.66003472222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7550,10 +7372,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:48:24</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44078.65861111111</v>
       </c>
       <c r="I99" t="n">
         <v>10</v>
@@ -7617,10 +7437,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:48:14</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44078.65849537037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7692,10 +7510,8 @@
           <t>3453737822</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:42:51</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44078.65475694444</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7763,10 +7579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:42:33</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44078.65454861111</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7830,10 +7644,8 @@
           <t>3453181472</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:41:46</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44078.65400462963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7901,10 +7713,8 @@
           <t>3453723355</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:37:31</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44078.65105324074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7976,10 +7786,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:36:05</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44078.65005787037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8055,10 +7863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:34:08</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44078.6487037037</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8126,10 +7932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:33:24</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44078.64819444445</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8189,10 +7993,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:31:03</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44078.6465625</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8256,10 +8058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:25:46</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44078.64289351852</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8335,10 +8135,8 @@
           <t>3453697757</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:25:23</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44078.64262731482</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8406,10 +8204,8 @@
           <t>3453204052</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:18:36</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44078.63791666667</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8473,10 +8269,8 @@
           <t>3453676391</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:17:28</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44078.63712962963</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8552,10 +8346,8 @@
           <t>3453680948</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:17:22</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44078.63706018519</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8631,10 +8423,8 @@
           <t>3453671674</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:17:11</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44078.63693287037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8702,10 +8492,8 @@
           <t>3453204052</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:16:58</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44078.6367824074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8773,10 +8561,8 @@
           <t>3453262889</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:12:07</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44078.63341435185</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8844,10 +8630,8 @@
           <t>3453647292</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:06:45</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44078.6296875</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8924,10 +8708,8 @@
           <t>3453507776</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:04:48</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44078.62833333333</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9003,10 +8785,8 @@
           <t>3453632721</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:01:21</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44078.6259375</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9074,10 +8854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:00:53</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44078.62561342592</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9141,10 +8919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-04 15:00:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44078.62517361111</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9216,10 +8992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:49:48</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44078.61791666667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9283,10 +9057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:49:12</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44078.6175</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9350,10 +9122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:48:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44078.61728009259</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9421,10 +9191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:47:22</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44078.61622685185</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9492,10 +9260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:44:37</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44078.61431712963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9571,10 +9337,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:41:50</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44078.61238425926</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9650,10 +9414,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:41:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44078.61193287037</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9729,10 +9491,8 @@
           <t>3453581360</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:39:36</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44078.61083333333</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9808,10 +9568,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:38:53</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44078.61033564815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9879,10 +9637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:36:36</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44078.60875</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9950,10 +9706,8 @@
           <t>3453566524</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:33:28</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44078.60657407407</v>
       </c>
       <c r="I132" t="n">
         <v>14</v>
@@ -10021,10 +9775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:31:55</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44078.60549768519</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10088,10 +9840,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:28:16</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44078.60296296296</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10151,10 +9901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:27:07</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44078.60216435185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10230,10 +9978,8 @@
           <t>3453440100</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:25:45</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44078.60121527778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10309,10 +10055,8 @@
           <t>3453507776</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:25:01</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44078.60070601852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10376,10 +10120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:21:33</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44078.59829861111</v>
       </c>
       <c r="I138" t="n">
         <v>4</v>
@@ -10451,10 +10193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:20:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44078.59761574074</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10530,10 +10270,8 @@
           <t>3453224687</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:18:43</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44078.59633101852</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10601,10 +10339,8 @@
           <t>3453368780</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:17:56</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44078.59578703704</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10672,10 +10408,8 @@
           <t>3453240048</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:16:36</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44078.59486111111</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10743,10 +10477,8 @@
           <t>3453218872</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:16:21</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44078.5946875</v>
       </c>
       <c r="I143" t="n">
         <v>10</v>
@@ -10814,10 +10546,8 @@
           <t>3453507776</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:16:05</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44078.59450231482</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10885,10 +10615,8 @@
           <t>3453521906</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:15:26</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44078.59405092592</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -10960,10 +10688,8 @@
           <t>3453174413</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:15:21</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44078.59399305555</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11031,10 +10757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:15:14</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44078.59391203704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11102,10 +10826,8 @@
           <t>3453178152</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:14:31</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44078.59341435185</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11173,10 +10895,8 @@
           <t>3453507776</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:10:30</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44078.590625</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11240,10 +10960,8 @@
           <t>3453216551</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:09:58</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44078.59025462963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11312,10 +11030,8 @@
           <t>3453498872</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:08:35</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44078.58929398148</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11379,10 +11095,8 @@
           <t>3453500899</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:06:23</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44078.5877662037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11454,10 +11168,8 @@
           <t>3453490313</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-04 14:01:45</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44078.58454861111</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11533,10 +11245,8 @@
           <t>3453477615</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:58:48</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44078.5825</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11604,10 +11314,8 @@
           <t>3453476356</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:57:24</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44078.58152777778</v>
       </c>
       <c r="I155" t="n">
         <v>4</v>
@@ -11671,10 +11379,8 @@
           <t>3453472440</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:57:07</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44078.58133101852</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11742,10 +11448,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:56:41</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44078.5810300926</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11817,10 +11521,8 @@
           <t>3453440100</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:52:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44078.57799768518</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11896,10 +11598,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:50:02</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44078.57641203704</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11967,10 +11667,8 @@
           <t>3453449361</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:49:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44078.57615740741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12034,10 +11732,8 @@
           <t>3453444844</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:48:51</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44078.57559027777</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12109,10 +11805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:47:43</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44078.57480324074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12184,10 +11878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:47:15</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44078.57447916667</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12259,10 +11951,8 @@
           <t>3453113699</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:47:12</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44078.57444444444</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12326,10 +12016,8 @@
           <t>3453446621</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:46:35</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44078.5740162037</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12397,10 +12085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:45:21</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44078.57315972223</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12468,10 +12154,8 @@
           <t>3453440100</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:43:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44078.57209490741</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12548,10 +12232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:42:10</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44078.57094907408</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12619,10 +12301,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:41:00</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44078.57013888889</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12686,10 +12366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:39:45</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44078.56927083333</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12753,10 +12431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:37:51</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44078.56795138889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12832,10 +12508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:32:58</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44078.56456018519</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12899,10 +12573,8 @@
           <t>3453394642</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:31:47</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44078.56373842592</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12974,10 +12646,8 @@
           <t>3453401609</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:30:31</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44078.56285879629</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13041,10 +12711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:28:42</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44078.56159722222</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13116,10 +12784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:27:12</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44078.56055555555</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13191,10 +12857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:26:46</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44078.56025462963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13262,10 +12926,8 @@
           <t>3453387892</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:26:46</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44078.56025462963</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13337,10 +12999,8 @@
           <t>3453381826</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:25:33</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44078.55940972222</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13416,10 +13076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:25:21</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44078.55927083334</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13487,10 +13145,8 @@
           <t>3453381417</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:25:10</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44078.55914351852</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13567,10 +13223,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:22:44</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44078.5574537037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13646,10 +13300,8 @@
           <t>3453368780</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:22:43</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44078.55744212963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13721,10 +13373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:22:37</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44078.55737268519</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13788,10 +13438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:21:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44078.55650462963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13859,10 +13507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:21:20</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44078.55648148148</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13934,10 +13580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:21:02</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44078.55627314815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14005,10 +13649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:20:55</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44078.55619212963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14080,10 +13722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:20:07</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44078.55563657408</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14151,10 +13791,8 @@
           <t>3453370777</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:19:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44078.55554398148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14218,10 +13856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:19:28</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44078.55518518519</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14291,10 +13927,8 @@
           <t>3453370005</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:19:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44078.55505787037</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14363,10 +13997,8 @@
           <t>3453154083</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:18:55</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44078.55480324074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14442,10 +14074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:18:45</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44078.5546875</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14509,10 +14139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:17:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44078.55407407408</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14580,10 +14208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:17:45</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44078.55399305555</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14660,10 +14286,8 @@
           <t>3453348765</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:17:01</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44078.5534837963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14735,10 +14359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:15:41</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44078.55255787037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14814,10 +14436,8 @@
           <t>3453322473</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:15:20</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44078.55231481481</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14889,10 +14509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:14:26</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44078.55168981481</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14968,10 +14586,8 @@
           <t>3453344477</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:14:19</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44078.5516087963</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15039,10 +14655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:13:56</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44078.55134259259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15110,10 +14724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:11:55</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44078.54994212963</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15185,10 +14797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:11:52</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44078.54990740741</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15256,10 +14866,8 @@
           <t>3453341400</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:11:38</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44078.54974537037</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15323,10 +14931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:11:33</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44078.5496875</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15394,10 +15000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:11:15</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44078.54947916666</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15466,10 +15070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:11:12</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44078.54944444444</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15541,10 +15143,8 @@
           <t>3453329850</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:10:21</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44078.54885416666</v>
       </c>
       <c r="I209" t="n">
         <v>12</v>
@@ -15612,10 +15212,8 @@
           <t>3453330942</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:10:21</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44078.54885416666</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15683,10 +15281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:09:15</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44078.54809027778</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15758,10 +15354,8 @@
           <t>3453323110</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:08:45</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44078.54774305555</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -15829,10 +15423,8 @@
           <t>3453322473</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:08:13</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44078.54737268519</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15908,10 +15500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:08:05</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44078.54728009259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15979,10 +15569,8 @@
           <t>3453322028</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:07:51</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44078.54711805555</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16059,10 +15647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:07:44</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44078.54703703704</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16138,10 +15724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:07:43</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44078.54702546296</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16213,10 +15797,8 @@
           <t>3453244053</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:07:35</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44078.54693287037</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16292,10 +15874,8 @@
           <t>3453146041</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:06:53</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44078.54644675926</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16367,10 +15947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:06:41</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44078.54630787037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16430,10 +16008,8 @@
           <t>3453325223</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:06:29</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44078.54616898148</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -16509,10 +16085,8 @@
           <t>3453320012</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:06:08</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44078.54592592592</v>
       </c>
       <c r="I222" t="n">
         <v>4</v>
@@ -16588,10 +16162,8 @@
           <t>3453132439</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:05:51</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44078.54572916667</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16663,10 +16235,8 @@
           <t>3453304956</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:05:25</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44078.54542824074</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16730,10 +16300,8 @@
           <t>3453312559</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:04:19</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44078.54466435185</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16809,10 +16377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:04:18</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44078.54465277777</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16880,10 +16446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:02:44</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44078.54356481481</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16955,10 +16519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:02:35</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44078.54346064815</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17026,10 +16588,8 @@
           <t>3453300451</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:01:44</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44078.54287037037</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -17105,10 +16665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:01:22</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44078.54261574074</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17184,10 +16742,8 @@
           <t>3453289000</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:00:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44078.54204861111</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17255,10 +16811,8 @@
           <t>3453293181</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:00:26</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44078.5419675926</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -17322,10 +16876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:00:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44078.54194444444</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17393,10 +16945,8 @@
           <t>3453297631</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-04 13:00:14</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44078.5418287037</v>
       </c>
       <c r="I234" t="n">
         <v>5</v>
@@ -17464,10 +17014,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:58:22</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44078.54053240741</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17543,10 +17091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:58:17</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44078.54047453704</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17622,10 +17168,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:57:29</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44078.53991898148</v>
       </c>
       <c r="I237" t="n">
         <v>5</v>
@@ -17693,10 +17237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:56:13</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44078.53903935185</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17760,10 +17302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:55:36</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44078.53861111111</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17823,10 +17363,8 @@
           <t>3453132439</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:55:31</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44078.53855324074</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17886,10 +17424,8 @@
           <t>3453132439</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:54:09</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44078.53760416667</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17957,10 +17493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:53:51</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44078.53739583334</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18024,10 +17558,8 @@
           <t>3453269500</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:53:29</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44078.53714120371</v>
       </c>
       <c r="I243" t="n">
         <v>14</v>
@@ -18095,10 +17627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:53:24</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44078.53708333334</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18162,10 +17692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:52:52</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44078.53671296296</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18241,10 +17769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:52:49</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44078.53667824074</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18304,10 +17830,8 @@
           <t>3453259404</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:52:48</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44078.53666666667</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18379,10 +17903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:51:59</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44078.53609953704</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18450,10 +17972,8 @@
           <t>3453258385</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:51:59</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44078.53609953704</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18525,10 +18045,8 @@
           <t>3453262889</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:51:58</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44078.53608796297</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18592,10 +18110,8 @@
           <t>3453256364</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:50:22</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44078.53497685185</v>
       </c>
       <c r="I251" t="n">
         <v>5</v>
@@ -18660,10 +18176,8 @@
           <t>3453265455</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:50:15</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44078.53489583333</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18735,10 +18249,8 @@
           <t>3453265156</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:50:01</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44078.5347337963</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18806,10 +18318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:49:44</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44078.53453703703</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18877,10 +18387,8 @@
           <t>3453244053</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:48:34</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44078.53372685185</v>
       </c>
       <c r="I255" t="n">
         <v>31</v>
@@ -18952,10 +18460,8 @@
           <t>3453247915</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:48:01</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44078.53334490741</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19023,10 +18529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:47:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44078.53299768519</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19094,10 +18598,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:47:30</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44078.53298611111</v>
       </c>
       <c r="I258" t="n">
         <v>4</v>
@@ -19169,10 +18671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:47:15</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44078.5328125</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19244,10 +18744,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:47:15</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44078.5328125</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19323,10 +18821,8 @@
           <t>3453241931</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:47:00</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44078.53263888889</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19390,10 +18886,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:46:59</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44078.53262731482</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19465,10 +18959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:46:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44078.53253472222</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19544,10 +19036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:46:43</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44078.53244212963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19615,10 +19105,8 @@
           <t>3453196129</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:46:31</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44078.53230324074</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19694,10 +19182,8 @@
           <t>3453146041</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:46:08</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44078.53203703704</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -19773,10 +19259,8 @@
           <t>3453240048</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:45:32</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44078.53162037037</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19849,10 +19333,8 @@
           <t>3453229935</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:45:26</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44078.53155092592</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19928,10 +19410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:45:18</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44078.53145833333</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19995,10 +19475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:44:30</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44078.53090277778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20066,10 +19544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:43:59</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44078.53054398148</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20167,10 +19643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:43:38</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44078.53030092592</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20238,10 +19712,8 @@
           <t>3453169928</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:43:21</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44078.53010416667</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20305,10 +19777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:43:14</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44078.53002314815</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20380,10 +19850,8 @@
           <t>3453226425</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:42:41</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44078.52964120371</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20459,10 +19927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:42:39</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44078.52961805555</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20534,10 +20000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:42:23</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44078.52943287037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20605,10 +20069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:42:19</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44078.52938657408</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20684,10 +20146,8 @@
           <t>3453235220</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:42:05</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44078.52922453704</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20763,10 +20223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:49</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44078.52903935185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20834,10 +20292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:41</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44078.52894675926</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20913,10 +20369,8 @@
           <t>3453224687</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:39</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44078.52892361111</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -20992,10 +20446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44078.52885416667</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21063,10 +20515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:32</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44078.52884259259</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21135,10 +20585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:29</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44078.52880787037</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21214,10 +20662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:41:19</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44078.52869212963</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21285,10 +20731,8 @@
           <t>3453218872</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:40:52</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44078.52837962963</v>
       </c>
       <c r="I287" t="n">
         <v>44</v>
@@ -21364,10 +20808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:40:45</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44078.52829861111</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21431,10 +20873,8 @@
           <t>3453218700</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:40:44</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44078.52828703704</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21510,10 +20950,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:40:37</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44078.52820601852</v>
       </c>
       <c r="I290" t="n">
         <v>13</v>
@@ -21589,10 +21027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:40:29</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44078.52811342593</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21652,10 +21088,8 @@
           <t>3453113699</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:40:21</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44078.52802083334</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21719,10 +21153,8 @@
           <t>3453222325</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:39:48</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44078.52763888889</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21798,10 +21230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:39:21</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44078.52732638889</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21865,10 +21295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:39:17</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44078.5272800926</v>
       </c>
       <c r="I295" t="n">
         <v>59</v>
@@ -21944,10 +21372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:39:03</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44078.52711805556</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22011,10 +21437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:39:02</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44078.52710648148</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22086,10 +21510,8 @@
           <t>3453216551</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:38:59</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44078.52707175926</v>
       </c>
       <c r="I298" t="n">
         <v>8</v>
@@ -22165,10 +21587,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:38:50</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44078.5269675926</v>
       </c>
       <c r="I299" t="n">
         <v>13</v>
@@ -22240,10 +21660,8 @@
           <t>3453221040</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:38:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44078.52690972222</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22315,10 +21733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:38:34</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44078.52678240741</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22386,10 +21802,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:38:04</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44078.52643518519</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22465,10 +21879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:38:00</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44078.52638888889</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22540,10 +21952,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:37:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44078.52613425926</v>
       </c>
       <c r="I304" t="n">
         <v>3</v>
@@ -22611,10 +22021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:37:23</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44078.52596064815</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22686,10 +22094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:37:11</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44078.52582175926</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22757,10 +22163,8 @@
           <t>3453204052</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:57</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44078.52565972223</v>
       </c>
       <c r="I307" t="n">
         <v>25</v>
@@ -22824,10 +22228,8 @@
           <t>3453192480</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:53</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44078.52561342593</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22895,10 +22297,8 @@
           <t>3453208662</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:49</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44078.52556712963</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22974,10 +22374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:28</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44078.52532407407</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23049,10 +22447,8 @@
           <t>3453180516</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:23</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44078.5252662037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23116,10 +22512,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:23</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44078.5252662037</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23183,10 +22577,8 @@
           <t>3453163717</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:07</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44078.52508101852</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23254,10 +22646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:36:02</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44078.52502314815</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23333,10 +22723,8 @@
           <t>3453162944</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:58</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44078.52497685186</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23408,10 +22796,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:57</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44078.52496527778</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23487,10 +22873,8 @@
           <t>3453197611</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:39</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44078.52475694445</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23558,10 +22942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:32</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44078.52467592592</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23625,10 +23007,8 @@
           <t>3453197213</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:20</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44078.52453703704</v>
       </c>
       <c r="I319" t="n">
         <v>6</v>
@@ -23697,10 +23077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:35:00</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44078.52430555555</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23764,10 +23142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:34:50</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44078.52418981482</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23831,10 +23207,8 @@
           <t>3453196129</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:34:26</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44078.52391203704</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23910,10 +23284,8 @@
           <t>3453200765</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:34:12</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44078.52375</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23983,10 +23355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:34:01</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44078.52362268518</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24058,10 +23428,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:34:01</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44078.52362268518</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24129,10 +23497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44078.52353009259</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24204,10 +23570,8 @@
           <t>3453194833</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:40</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44078.52337962963</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24272,10 +23636,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:37</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44078.52334490741</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24351,10 +23713,8 @@
           <t>3453194742</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:35</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44078.52332175926</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24426,10 +23786,8 @@
           <t>3453193536</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:29</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44078.52325231482</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24497,10 +23855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:25</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44078.52320601852</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24572,10 +23928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44078.52299768518</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24643,10 +23997,8 @@
           <t>3453184465</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:33:04</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44078.52296296296</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24714,10 +24066,8 @@
           <t>3453188647</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:32:30</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44078.52256944445</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24793,10 +24143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:32:09</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44078.52232638889</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24872,10 +24220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:32:02</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44078.52224537037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24943,10 +24289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:31:50</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44078.52210648148</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25010,10 +24354,8 @@
           <t>3453192480</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:31:42</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44078.52201388889</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25085,10 +24427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:31:34</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44078.5219212963</v>
       </c>
       <c r="I339" t="n">
         <v>6</v>
@@ -25156,10 +24496,8 @@
           <t>3453186821</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:31:02</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44078.52155092593</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25231,10 +24569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:57</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44078.52149305555</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25310,10 +24646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:49</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44078.52140046296</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25373,10 +24707,8 @@
           <t>3453181472</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:37</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44078.52126157407</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25444,10 +24776,8 @@
           <t>3453186152</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:27</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44078.52114583334</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25515,10 +24845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:26</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44078.52113425926</v>
       </c>
       <c r="I345" t="n">
         <v>39</v>
@@ -25596,10 +24924,8 @@
           <t>3453155931</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:14</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44078.52099537037</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25667,10 +24993,8 @@
           <t>3453180755</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:30:03</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44078.52086805556</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25746,10 +25070,8 @@
           <t>3453180516</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:51</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44078.52072916667</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25813,10 +25135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:42</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44078.520625</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25884,10 +25204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:28</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44078.52046296297</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25955,10 +25273,8 @@
           <t>3453177285</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:26</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44078.52043981481</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26055,10 +25371,8 @@
           <t>3453169928</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:26</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44078.52043981481</v>
       </c>
       <c r="I352" t="n">
         <v>63</v>
@@ -26134,10 +25448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:20</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44078.52037037037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26209,10 +25521,8 @@
           <t>3453154494</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:29:05</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44078.52019675926</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26280,10 +25590,8 @@
           <t>3453174413</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44078.52012731481</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26355,10 +25663,8 @@
           <t>3453178931</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:45</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44078.51996527778</v>
       </c>
       <c r="I356" t="n">
         <v>6</v>
@@ -26426,10 +25732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:44</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44078.5199537037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26501,10 +25805,8 @@
           <t>3453168568</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:23</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44078.51971064815</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26580,10 +25882,8 @@
           <t>3453154494</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:21</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44078.5196875</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26655,10 +25955,8 @@
           <t>3453178152</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:07</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44078.51952546297</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26726,10 +26024,8 @@
           <t>3453132333</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:28:04</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44078.51949074074</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26801,10 +26097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:46</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44078.5192824074</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26876,10 +26170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:38</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44078.51918981481</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26947,10 +26239,8 @@
           <t>3453172615</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:31</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44078.5191087963</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27014,10 +26304,8 @@
           <t>3453177339</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:27</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44078.5190625</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -27085,10 +26373,8 @@
           <t>3453177285</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:24</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44078.51902777778</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27164,10 +26450,8 @@
           <t>3453167343</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:21</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44078.51899305556</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27231,10 +26515,8 @@
           <t>3453167299</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:19</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44078.51896990741</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -27302,10 +26584,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:17</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44078.51894675926</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27381,10 +26661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:08</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44078.5188425926</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27444,10 +26722,8 @@
           <t>3453154494</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:27:03</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44078.51878472222</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27516,10 +26792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:53</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44078.51866898148</v>
       </c>
       <c r="I372" t="n">
         <v>6</v>
@@ -27583,10 +26857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:50</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44078.51863425926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27651,10 +26923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:36</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44078.51847222223</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -27732,10 +27002,8 @@
           <t>3453166420</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:34</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44078.51844907407</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27803,10 +27071,8 @@
           <t>3453162447</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:30</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44078.51840277778</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -27866,10 +27132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:29</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44078.5183912037</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27945,10 +27209,8 @@
           <t>3453162447</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:28</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44078.51837962963</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28024,10 +27286,8 @@
           <t>3453166156</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:20</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44078.51828703703</v>
       </c>
       <c r="I379" t="n">
         <v>20</v>
@@ -28099,10 +27359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:26:17</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44078.51825231482</v>
       </c>
       <c r="I380" t="n">
         <v>5</v>
@@ -28166,10 +27424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:25:53</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44078.51797453704</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28233,10 +27489,8 @@
           <t>3453170174</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:25:32</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44078.51773148148</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28308,10 +27562,8 @@
           <t>3453170154</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:25:31</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44078.51771990741</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28379,10 +27631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:25:05</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44078.51741898148</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28454,10 +27704,8 @@
           <t>3453154494</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:58</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44078.51733796296</v>
       </c>
       <c r="I385" t="n">
         <v>11</v>
@@ -28525,10 +27773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:57</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44078.51732638889</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28588,10 +27834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:56</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44078.51731481482</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28659,10 +27903,8 @@
           <t>3453132333</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:56</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44078.51731481482</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28726,10 +27968,8 @@
           <t>3453159200</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:44</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44078.51717592592</v>
       </c>
       <c r="I389" t="n">
         <v>3</v>
@@ -28805,10 +28045,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:43</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44078.51716435186</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28880,10 +28118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:42</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44078.51715277778</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28951,10 +28187,8 @@
           <t>3453154083</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:38</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44078.51710648148</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29022,10 +28256,8 @@
           <t>3453163717</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:27</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44078.51697916666</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29097,10 +28329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:26</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44078.51696759259</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29168,10 +28398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:23</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44078.51693287037</v>
       </c>
       <c r="I395" t="n">
         <v>6</v>
@@ -29239,10 +28467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:16</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44078.51685185185</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29314,10 +28540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:14</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44078.5168287037</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29385,10 +28609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:24:06</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44078.51673611111</v>
       </c>
       <c r="I398" t="n">
         <v>101</v>
@@ -29456,10 +28678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:59</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44078.51665509259</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29531,10 +28751,8 @@
           <t>3453155931</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:59</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44078.51665509259</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29610,10 +28828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:48</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44078.51652777778</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29681,10 +28897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:46</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44078.51650462963</v>
       </c>
       <c r="I402" t="n">
         <v>164</v>
@@ -29752,10 +28966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:45</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44078.51649305555</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29831,10 +29043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:43</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44078.51646990741</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29911,10 +29121,8 @@
           <t>3453162739</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:38</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44078.51641203704</v>
       </c>
       <c r="I405" t="n">
         <v>30</v>
@@ -29982,10 +29190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:32</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44078.51634259259</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30053,10 +29259,8 @@
           <t>3453162447</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:25</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44078.51626157408</v>
       </c>
       <c r="I407" t="n">
         <v>4</v>
@@ -30124,10 +29328,8 @@
           <t>3453157495</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:22</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44078.51622685185</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30195,10 +29397,8 @@
           <t>3453157475</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:21</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44078.51621527778</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30266,10 +29466,8 @@
           <t>3453162276</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:16</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44078.51615740741</v>
       </c>
       <c r="I410" t="n">
         <v>14</v>
@@ -30333,10 +29531,8 @@
           <t>3453161958</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:23:01</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44078.51598379629</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30412,10 +29608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:22:57</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44078.5159375</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30491,10 +29685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:22:29</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44078.51561342592</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30570,10 +29762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:22:25</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44078.51556712963</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30641,10 +29831,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:22:21</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44078.51552083333</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30712,10 +29900,8 @@
           <t>3453155931</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:22:08</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44078.51537037037</v>
       </c>
       <c r="I416" t="n">
         <v>2</v>
@@ -30783,10 +29969,8 @@
           <t>3453150682</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:21:50</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44078.51516203704</v>
       </c>
       <c r="I417" t="n">
         <v>85</v>
@@ -30854,10 +30038,8 @@
           <t>3453150303</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:21:30</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44078.51493055555</v>
       </c>
       <c r="I418" t="n">
         <v>7</v>
@@ -30925,10 +30107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:21:26</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44078.51488425926</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30996,10 +30176,8 @@
           <t>3453149554</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:21:01</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44078.51459490741</v>
       </c>
       <c r="I420" t="n">
         <v>5</v>
@@ -31067,10 +30245,8 @@
           <t>3453144425</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:55</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44078.51452546296</v>
       </c>
       <c r="I421" t="n">
         <v>4</v>
@@ -31146,10 +30322,8 @@
           <t>3453149244</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:46</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44078.5144212963</v>
       </c>
       <c r="I422" t="n">
         <v>6</v>
@@ -31217,10 +30391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:37</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44078.51431712963</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31296,10 +30468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:29</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44078.51422453704</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31363,10 +30533,8 @@
           <t>3453148841</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:27</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44078.51420138889</v>
       </c>
       <c r="I425" t="n">
         <v>5</v>
@@ -31438,10 +30606,8 @@
           <t>3453143823</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:26</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44078.51418981481</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31509,10 +30675,8 @@
           <t>3453143664</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:18</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44078.51409722222</v>
       </c>
       <c r="I427" t="n">
         <v>5</v>
@@ -31580,10 +30744,8 @@
           <t>3453143591</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:14</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44078.51405092593</v>
       </c>
       <c r="I428" t="n">
         <v>5</v>
@@ -31659,10 +30821,8 @@
           <t>3453148554</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:13</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44078.51403935185</v>
       </c>
       <c r="I429" t="n">
         <v>3</v>
@@ -31730,10 +30890,8 @@
           <t>3453124334</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:20:10</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44078.51400462963</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31810,10 +30968,8 @@
           <t>3453148191</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:56</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44078.51384259259</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31882,10 +31038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:50</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44078.51377314814</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31953,10 +31107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:48</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44078.51375</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32020,10 +31172,8 @@
           <t>3453122477</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:41</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44078.51366898148</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32093,10 +31243,8 @@
           <t>3453142776</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:34</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44078.51358796296</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32164,10 +31312,8 @@
           <t>3453146041</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:20</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44078.51342592593</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -32243,10 +31389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:19</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44078.51341435185</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32322,10 +31466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:18</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44078.51340277777</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32393,10 +31535,8 @@
           <t>3453137631</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:18</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44078.51340277777</v>
       </c>
       <c r="I439" t="n">
         <v>9</v>
@@ -32468,10 +31608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:13</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44078.51334490741</v>
       </c>
       <c r="I440" t="n">
         <v>153</v>
@@ -32547,10 +31685,8 @@
           <t>3453137383</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:05</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44078.51325231481</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32622,10 +31758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:19:00</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44078.51319444444</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32689,10 +31823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:55</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44078.51313657407</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32760,10 +31892,8 @@
           <t>3453141946</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:53</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44078.51311342593</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32827,10 +31957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:40</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44078.51296296297</v>
       </c>
       <c r="I445" t="n">
         <v>13</v>
@@ -32906,10 +32034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:26</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44078.51280092593</v>
       </c>
       <c r="I446" t="n">
         <v>5</v>
@@ -32977,10 +32103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:26</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44078.51280092593</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33052,10 +32176,8 @@
           <t>3453136312</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:10</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44078.51261574074</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33123,10 +32245,8 @@
           <t>3453146041</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:07</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44078.51258101852</v>
       </c>
       <c r="I449" t="n">
         <v>30</v>
@@ -33202,10 +32322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:18:05</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44078.51255787037</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33281,10 +32399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:57</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44078.51246527778</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33348,10 +32464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:52</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44078.5124074074</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33415,10 +32529,8 @@
           <t>3453145738</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:51</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44078.51239583334</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -33486,10 +32598,8 @@
           <t>3453145741</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:51</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44078.51239583334</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33565,10 +32675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:49</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44078.51237268518</v>
       </c>
       <c r="I455" t="n">
         <v>91</v>
@@ -33636,10 +32744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:46</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44078.51233796297</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33707,10 +32813,8 @@
           <t>3453145620</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:45</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44078.51232638889</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33774,10 +32878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:42</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44078.51229166667</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33841,10 +32943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:39</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44078.51225694444</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33908,10 +33008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:39</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44078.51225694444</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33987,10 +33085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:27</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44078.51211805556</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34062,10 +33158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:27</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44078.51211805556</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34137,10 +33231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:20</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44078.51203703704</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34204,10 +33296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:19</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44078.51202546297</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34279,10 +33369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:12</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44078.51194444444</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34350,10 +33438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:17:10</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44078.5119212963</v>
       </c>
       <c r="I466" t="n">
         <v>239</v>
@@ -34421,10 +33507,8 @@
           <t>3453124913</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:59</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44078.51179398148</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34488,10 +33572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:58</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44078.5117824074</v>
       </c>
       <c r="I468" t="n">
         <v>2</v>
@@ -34563,10 +33645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:55</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44078.51174768519</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34642,10 +33722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:51</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44078.51170138889</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34717,10 +33795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:43</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44078.5116087963</v>
       </c>
       <c r="I471" t="n">
         <v>222</v>
@@ -34784,10 +33860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:30</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44078.51145833333</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34851,10 +33925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:28</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44078.51143518519</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34922,10 +33994,8 @@
           <t>3453124334</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:28</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44078.51143518519</v>
       </c>
       <c r="I474" t="n">
         <v>4</v>
@@ -34989,10 +34059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:21</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44078.51135416667</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35068,10 +34136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:20</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44078.5113425926</v>
       </c>
       <c r="I476" t="n">
         <v>5</v>
@@ -35147,10 +34213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:20</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44078.5113425926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35222,10 +34286,8 @@
           <t>3453128788</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:13</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44078.51126157407</v>
       </c>
       <c r="I478" t="n">
         <v>19</v>
@@ -35297,10 +34359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:10</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44078.51122685185</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35372,10 +34432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:07</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44078.51119212963</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35451,10 +34509,8 @@
           <t>3453123812</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:16:01</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44078.51112268519</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35518,10 +34574,8 @@
           <t>3453133472</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:55</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44078.51105324074</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35597,10 +34651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:48</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44078.51097222222</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35672,10 +34724,8 @@
           <t>3453123466</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:43</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44078.51091435185</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35743,10 +34793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:42</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44078.51090277778</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35818,10 +34866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:32</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44078.51078703703</v>
       </c>
       <c r="I486" t="n">
         <v>9</v>
@@ -35897,10 +34943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:31</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44078.51077546296</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35968,10 +35012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:27</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44078.51072916666</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36043,10 +35085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:25</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44078.51070601852</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36118,10 +35158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:23</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44078.51068287037</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36189,10 +35227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:21</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44078.51065972223</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36256,10 +35292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:20</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44078.51064814815</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36338,10 +35372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:12</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44078.51055555556</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36417,10 +35449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:08</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44078.51050925926</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36492,10 +35522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:07</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44078.51049768519</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -36567,10 +35595,8 @@
           <t>3453132439</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:03</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44078.51045138889</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36642,10 +35668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:03</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44078.51045138889</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36709,10 +35733,8 @@
           <t>3453127440</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:01</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44078.51042824074</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36788,10 +35810,8 @@
           <t>3453132368</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:15:00</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44078.51041666666</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36856,10 +35876,8 @@
           <t>3453132333</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:58</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44078.51039351852</v>
       </c>
       <c r="I500" t="n">
         <v>20</v>
@@ -36931,10 +35949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:51</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44078.5103125</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37006,10 +36022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:48</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44078.51027777778</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37085,10 +36099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:39</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44078.51017361111</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37160,10 +36172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:38</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44078.51016203704</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37235,10 +36245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:35</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44078.51012731482</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37310,10 +36318,8 @@
           <t>3453131846</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:33</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44078.51010416666</v>
       </c>
       <c r="I506" t="n">
         <v>8</v>
@@ -37381,10 +36387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:31</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44078.51008101852</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37460,10 +36464,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:26</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44078.51002314815</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37535,10 +36537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:22</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44078.50997685185</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37606,10 +36606,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:22</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44078.50997685185</v>
       </c>
       <c r="I510" t="n">
         <v>10</v>
@@ -37681,10 +36679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:20</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44078.5099537037</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37760,10 +36756,8 @@
           <t>3453131527</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:17</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44078.50991898148</v>
       </c>
       <c r="I512" t="n">
         <v>3</v>
@@ -37831,10 +36825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:11</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44078.50984953704</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -37910,10 +36902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:09</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44078.50982638889</v>
       </c>
       <c r="I514" t="n">
         <v>16</v>
@@ -37989,10 +36979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:06</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44078.50979166666</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38060,10 +37048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:06</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44078.50979166666</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38131,10 +37117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:14:04</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44078.50976851852</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38210,10 +37194,8 @@
           <t>3453121539</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:59</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44078.50971064815</v>
       </c>
       <c r="I518" t="n">
         <v>6</v>
@@ -38281,10 +37263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:58</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44078.50969907407</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38352,10 +37332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:55</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44078.50966435186</v>
       </c>
       <c r="I520" t="n">
         <v>2</v>
@@ -38415,10 +37393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:44</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44078.50953703704</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38486,10 +37462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:43</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44078.50952546296</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38557,10 +37531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:36</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44078.50944444445</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38632,10 +37604,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:36</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44078.50944444445</v>
       </c>
       <c r="I524" t="n">
         <v>3</v>
@@ -38707,10 +37677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:32</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44078.50939814815</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38782,10 +37750,8 @@
           <t>3453125601</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:25</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44078.50931712963</v>
       </c>
       <c r="I526" t="n">
         <v>3</v>
@@ -38857,10 +37823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:20</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44078.50925925926</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -38932,10 +37896,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:11</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44078.50915509259</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39011,10 +37973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:09</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44078.50913194445</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39078,10 +38038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:09</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44078.50913194445</v>
       </c>
       <c r="I530" t="n">
         <v>92</v>
@@ -39157,10 +38115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:08</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44078.50912037037</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39232,10 +38188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:13:01</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44078.50903935185</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39307,10 +38261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:58</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44078.50900462963</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39374,10 +38326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:56</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44078.50898148148</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39453,10 +38403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:51</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44078.50892361111</v>
       </c>
       <c r="I535" t="n">
         <v>51</v>
@@ -39532,10 +38480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:49</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44078.50890046296</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39611,10 +38557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:43</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44078.50883101852</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39690,10 +38634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:34</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44078.50872685185</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39773,10 +38715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:31</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44078.50869212963</v>
       </c>
       <c r="I539" t="n">
         <v>45</v>
@@ -39845,10 +38785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:29</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44078.50866898148</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39916,10 +38854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:25</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44078.50862268519</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39995,10 +38931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:24</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44078.50861111111</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40070,10 +39004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:24</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44078.50861111111</v>
       </c>
       <c r="I543" t="n">
         <v>140</v>
@@ -40145,10 +39077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:23</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44078.50859953704</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40216,10 +39146,8 @@
           <t>3453114414</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:23</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44078.50859953704</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40291,10 +39219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:19</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44078.50855324074</v>
       </c>
       <c r="I546" t="n">
         <v>1</v>
@@ -40362,10 +39288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:11</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44078.50846064815</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40441,10 +39365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:10</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44078.50844907408</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40516,10 +39438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:10</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44078.50844907408</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40595,10 +39515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:09</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44078.5084375</v>
       </c>
       <c r="I550" t="n">
         <v>10</v>
@@ -40666,10 +39584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:08</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44078.50842592592</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40741,10 +39657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:08</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44078.50842592592</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40812,10 +39726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:07</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44078.50841435185</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40891,10 +39803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:06</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44078.50840277778</v>
       </c>
       <c r="I554" t="n">
         <v>22</v>
@@ -40970,10 +39880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:03</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44078.50836805555</v>
       </c>
       <c r="I555" t="n">
         <v>24</v>
@@ -41049,10 +39957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:03</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44078.50836805555</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41121,10 +40027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:02</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44078.50835648148</v>
       </c>
       <c r="I557" t="n">
         <v>466</v>
@@ -41192,10 +40096,8 @@
           <t>3453109240</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:12:01</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44078.50834490741</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41267,10 +40169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:57</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44078.50829861111</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41342,10 +40242,8 @@
           <t>3453113854</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:56</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44078.50828703704</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41417,10 +40315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:54</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44078.50826388889</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -41488,10 +40384,8 @@
           <t>3453113699</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:48</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44078.50819444445</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41555,10 +40449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:46</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44078.50817129629</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41626,10 +40518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:43</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44078.50813657408</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41697,10 +40587,8 @@
           <t>3453118495</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:43</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44078.50813657408</v>
       </c>
       <c r="I565" t="n">
         <v>25</v>
@@ -41772,10 +40660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:40</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44078.50810185185</v>
       </c>
       <c r="I566" t="n">
         <v>52</v>
@@ -41851,10 +40737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:38</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44078.5080787037</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41914,10 +40798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:37</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44078.50806712963</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41981,10 +40863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:36</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44078.50805555555</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42048,10 +40928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:36</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44078.50805555555</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42119,10 +40997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:36</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44078.50805555555</v>
       </c>
       <c r="I571" t="n">
         <v>259</v>
@@ -42194,10 +41070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:36</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44078.50805555555</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42265,10 +41139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:36</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44078.50805555555</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42344,10 +41216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:35</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44078.50804398148</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42415,10 +41285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:30</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44078.50798611111</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42486,10 +41354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:29</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44078.50797453704</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42553,10 +41419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:29</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44078.50797453704</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42620,10 +41484,8 @@
           <t>3453113304</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:28</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44078.50796296296</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42699,10 +41561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:25</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44078.50792824074</v>
       </c>
       <c r="I579" t="n">
         <v>1</v>
@@ -42778,10 +41638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:24</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44078.50791666667</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42849,10 +41707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:23</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44078.50790509259</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -42929,10 +41785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:23</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44078.50790509259</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43000,10 +41854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:23</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44078.50790509259</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43079,10 +41931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:22</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44078.50789351852</v>
       </c>
       <c r="I584" t="n">
         <v>915</v>
@@ -43158,10 +42008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:21</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44078.50788194445</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43233,10 +42081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:18</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44078.50784722222</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43300,10 +42146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:17</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44078.50783564815</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43379,10 +42223,8 @@
           <t>3453108430</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:17</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44078.50783564815</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43446,10 +42288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:16</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44078.50782407408</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43517,10 +42357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:15</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44078.5078125</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43592,10 +42430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:15</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44078.5078125</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43667,10 +42503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:14</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44078.50780092592</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43746,10 +42580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:14</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44078.50780092592</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43825,10 +42657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:11</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44078.5077662037</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43900,10 +42730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:10</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44078.50775462963</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -43979,10 +42807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:09</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44078.50774305555</v>
       </c>
       <c r="I596" t="n">
         <v>2</v>
@@ -44054,10 +42880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:09</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44078.50774305555</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -44129,10 +42953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:08</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44078.50773148148</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -44208,10 +43030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:06</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44078.50770833333</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44287,10 +43107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:04</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44078.50768518518</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44358,10 +43176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:04</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44078.50768518518</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44433,10 +43249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:03</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44078.50767361111</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44508,10 +43322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:03</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44078.50767361111</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44575,10 +43387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:11:02</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44078.50766203704</v>
       </c>
       <c r="I604" t="n">
         <v>603</v>
@@ -44642,10 +43452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:59</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44078.50762731482</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44721,10 +43529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:59</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44078.50762731482</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44792,10 +43598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:58</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44078.50761574074</v>
       </c>
       <c r="I607" t="n">
         <v>651</v>
@@ -44871,10 +43675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:58</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44078.50761574074</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44950,10 +43752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:57</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44078.50760416667</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -45025,10 +43825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:55</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44078.50758101852</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45096,10 +43894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:53</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44078.50755787037</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45171,10 +43967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:53</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44078.50755787037</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45250,10 +44044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:51</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44078.50753472222</v>
       </c>
       <c r="I613" t="n">
         <v>3</v>
@@ -45329,10 +44121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:50</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44078.50752314815</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45408,10 +44198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:49</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44078.50751157408</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45471,10 +44259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:49</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44078.50751157408</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45538,10 +44324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:48</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44078.5075</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45617,10 +44401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:48</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44078.5075</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45684,10 +44466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:48</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44078.5075</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45751,10 +44531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:47</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44078.50748842592</v>
       </c>
       <c r="I620" t="n">
         <v>2</v>
@@ -45822,10 +44600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:47</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44078.50748842592</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45901,10 +44677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:45</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44078.50746527778</v>
       </c>
       <c r="I622" t="n">
         <v>2</v>
@@ -45972,10 +44746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:44</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44078.50745370371</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -46039,10 +44811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:38</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44078.50738425926</v>
       </c>
       <c r="I624" t="n">
         <v>2</v>
@@ -46110,10 +44880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-04 12:10:37</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44078.50737268518</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
